--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-471692.2997975064</v>
+        <v>-416659.5193601112</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17393893.48890402</v>
+        <v>16693787.93026804</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9190592.446595982</v>
+        <v>9201487.641358342</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>274.9243678566509</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>322.9639268876603</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>53.93945200553801</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>206.8261815634866</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>63.91879806533819</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>85.00477697520712</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>229.8635849988177</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>230.0877573838135</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>414.5565165653293</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,13 +1291,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1342,16 +1342,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>126.4628799063054</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26.13343186029126</v>
       </c>
       <c r="T11" t="n">
-        <v>172.5956338268807</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>240.9739924674996</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>190.6369707019513</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>355.6295433756853</v>
       </c>
       <c r="W14" t="n">
-        <v>355.5359790142668</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950065</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6379250432768</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>119.8016735830737</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>68.97806888533773</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>82.14201637551402</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629681</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2135,19 +2135,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>272.7206239362654</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>114.1905507831688</v>
       </c>
     </row>
     <row r="21">
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>28.4682460490441</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170487</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,7 +2959,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513587</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436915</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925456</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999607</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>71.12675199790333</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169449</v>
+        <v>206.1779517755937</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.118296962979</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063844</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832451</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516992</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177633</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>18.40787475442414</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432446</v>
+        <v>76.08474665297338</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934476</v>
+        <v>9.515040001583802</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348853</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593277</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894734</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398236</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999607</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>71.12675199790333</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755937</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>389.118296962979</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063844</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832451</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516992</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177633</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>18.40787475442357</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>76.08474665297338</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>9.515040001583802</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348853</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593277</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894734</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398236</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999607</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790333</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755937</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.118296962979</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063844</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832451</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516992</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>163.2513804177633</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>18.40787475442374</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>76.08474665297338</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934455</v>
+        <v>9.515040001583802</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348853</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593277</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894734</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398236</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5785571901426</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2086.56159868973</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1667.419135269041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1663.173415609098</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W4" t="n">
-        <v>1216.160498707152</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X4" t="n">
-        <v>1216.160498707152</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.0361114536327</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1461.199093024608</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1375.33568193854</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1675.765608785789</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1675.765608785789</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>365.5781984972737</v>
+        <v>1777.329602475393</v>
       </c>
       <c r="C8" t="n">
-        <v>133.1663223520075</v>
+        <v>1339.187129658816</v>
       </c>
       <c r="D8" t="n">
-        <v>101.2969415668561</v>
+        <v>903.2773448332607</v>
       </c>
       <c r="E8" t="n">
-        <v>71.56260076555536</v>
+        <v>873.54300403196</v>
       </c>
       <c r="F8" t="n">
-        <v>47.73557521516715</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>482.990262668085</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1073.718005955778</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1080.398166759013</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1080.398166759013</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1080.398166759013</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1080.398166759013</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1671.125910046706</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2217.624696005301</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2386.778760758358</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2386.778760758358</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2386.778760758358</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2386.778760758358</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2024.161810692184</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1619.306356103217</v>
+        <v>2222.976952000528</v>
       </c>
       <c r="X8" t="n">
-        <v>1200.163892682528</v>
+        <v>2207.874892620243</v>
       </c>
       <c r="Y8" t="n">
-        <v>791.8777689821815</v>
+        <v>1799.588768919897</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.90732020646</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.4508590431022</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3605701896555</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.2401555166092</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8563171327708</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.47122739895468</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>47.73557521516715</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>372.2939001813795</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>963.021643469073</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1053.063619967561</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1053.063619967561</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1053.063619967561</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1053.063619967561</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.063619967561</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.802558599636</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.975336693976</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.519899142359</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.341255472961</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1341.004708472929</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.887190534928</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5644362681223</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6970005070024</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.2112212862231</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1126.793735827049</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>954.2320243102735</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D10" t="n">
-        <v>788.3540315117962</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5960277625335</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>441.8889737242897</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>276.2976987501173</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>136.3955244404918</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>47.73557521516715</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>322.4940297863027</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>740.7039115542638</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1200.187778735177</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1642.446581892821</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2062.115831118603</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2386.778760758358</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2386.778760758358</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2365.36093946373</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2206.119570761726</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2206.119570761726</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2078.379288028084</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1791.423779898515</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1791.423779898515</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1546.032025231927</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.612354546036</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.969386844472</v>
+        <v>2118.141965269473</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.826914027895</v>
+        <v>1679.999492452896</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.917129202339</v>
+        <v>1244.08970762734</v>
       </c>
       <c r="E11" t="n">
-        <v>1213.142384360634</v>
+        <v>810.3149627856355</v>
       </c>
       <c r="F11" t="n">
-        <v>785.2749547698421</v>
+        <v>382.4475331948433</v>
       </c>
       <c r="G11" t="n">
-        <v>383.877123393106</v>
+        <v>382.4475331948433</v>
       </c>
       <c r="H11" t="n">
-        <v>94.74696883632224</v>
+        <v>93.31737863805974</v>
       </c>
       <c r="I11" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519974</v>
       </c>
       <c r="J11" t="n">
-        <v>452.1103875997775</v>
+        <v>92.90058926519974</v>
       </c>
       <c r="K11" t="n">
-        <v>1286.460679557955</v>
+        <v>466.2838465804378</v>
       </c>
       <c r="L11" t="n">
-        <v>2361.520645810815</v>
+        <v>1541.343812833297</v>
       </c>
       <c r="M11" t="n">
-        <v>2361.520645810815</v>
+        <v>2690.988604990144</v>
       </c>
       <c r="N11" t="n">
-        <v>2361.520645810815</v>
+        <v>3816.719588426591</v>
       </c>
       <c r="O11" t="n">
-        <v>3341.700312381121</v>
+        <v>3816.719588426591</v>
       </c>
       <c r="P11" t="n">
-        <v>4170.010187214517</v>
+        <v>4645.029463259987</v>
       </c>
       <c r="Q11" t="n">
-        <v>4716.508973173112</v>
+        <v>4645.029463259987</v>
       </c>
       <c r="R11" t="n">
-        <v>4716.508973173112</v>
+        <v>4645.029463259987</v>
       </c>
       <c r="S11" t="n">
-        <v>4716.508973173112</v>
+        <v>4618.632057340501</v>
       </c>
       <c r="T11" t="n">
-        <v>4542.169949105555</v>
+        <v>4398.56483021354</v>
       </c>
       <c r="U11" t="n">
-        <v>4542.169949105555</v>
+        <v>4139.342527530556</v>
       </c>
       <c r="V11" t="n">
-        <v>4179.552999039382</v>
+        <v>3776.725577464383</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.697544450415</v>
+        <v>3371.870122875416</v>
       </c>
       <c r="X11" t="n">
-        <v>3355.555081029726</v>
+        <v>2952.727659454727</v>
       </c>
       <c r="Y11" t="n">
-        <v>2947.268957329379</v>
+        <v>2544.44153575438</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.501924454755</v>
+        <v>599.0723342564926</v>
       </c>
       <c r="C12" t="n">
-        <v>494.0454632913973</v>
+        <v>492.6158730931348</v>
       </c>
       <c r="D12" t="n">
-        <v>398.9551744379506</v>
+        <v>397.5255842396881</v>
       </c>
       <c r="E12" t="n">
-        <v>304.8347597649043</v>
+        <v>303.4051695666418</v>
       </c>
       <c r="F12" t="n">
-        <v>221.4509213810659</v>
+        <v>220.0213311828034</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0658316472498</v>
+        <v>134.6362414489873</v>
       </c>
       <c r="H12" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519974</v>
       </c>
       <c r="I12" t="n">
-        <v>120.3938526239198</v>
+        <v>118.9642624256573</v>
       </c>
       <c r="J12" t="n">
-        <v>444.9521775901322</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="K12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="M12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="N12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="O12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="P12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1640.397162847931</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.569940942271</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1694.114503390654</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1563.935859721256</v>
+        <v>1562.506269522993</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.599312721224</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1188.481794783223</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1003.159040516417</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>848.2916047552974</v>
+        <v>846.862014557035</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.8058255345181</v>
+        <v>720.3762353362557</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1084.728390850019</v>
+        <v>833.8057633861337</v>
       </c>
       <c r="C13" t="n">
-        <v>912.1666793332439</v>
+        <v>833.8057633861337</v>
       </c>
       <c r="D13" t="n">
-        <v>746.2886865347666</v>
+        <v>667.9277705876564</v>
       </c>
       <c r="E13" t="n">
-        <v>576.5306827855038</v>
+        <v>498.1697668383937</v>
       </c>
       <c r="F13" t="n">
-        <v>399.82362874726</v>
+        <v>321.4627128001499</v>
       </c>
       <c r="G13" t="n">
-        <v>234.2323537730877</v>
+        <v>321.4627128001499</v>
       </c>
       <c r="H13" t="n">
-        <v>94.33017946346224</v>
+        <v>181.5605384905244</v>
       </c>
       <c r="I13" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519974</v>
       </c>
       <c r="J13" t="n">
-        <v>180.9098646281521</v>
+        <v>179.4802744298896</v>
       </c>
       <c r="K13" t="n">
-        <v>455.6683191992877</v>
+        <v>454.2387290010252</v>
       </c>
       <c r="L13" t="n">
-        <v>873.8782009672487</v>
+        <v>872.4486107689863</v>
       </c>
       <c r="M13" t="n">
-        <v>1333.362068148162</v>
+        <v>1331.932477949899</v>
       </c>
       <c r="N13" t="n">
-        <v>1775.620871305806</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2195.290120531588</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2542.79701450193</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2710.989789366262</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.989789366262</v>
+        <v>2688.142377873372</v>
       </c>
       <c r="S13" t="n">
-        <v>2551.748420664258</v>
+        <v>2528.901009171368</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.340347464763</v>
+        <v>2283.021562749823</v>
       </c>
       <c r="U13" t="n">
-        <v>2308.340347464763</v>
+        <v>2004.588562002928</v>
       </c>
       <c r="V13" t="n">
-        <v>2021.384839335194</v>
+        <v>1717.633053873359</v>
       </c>
       <c r="W13" t="n">
-        <v>1749.358434921485</v>
+        <v>1445.60664945965</v>
       </c>
       <c r="X13" t="n">
-        <v>1503.966680254898</v>
+        <v>1253.044052791013</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.547009569006</v>
+        <v>1025.624382105121</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.969386844472</v>
+        <v>2233.374692844384</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.826914027895</v>
+        <v>1795.232220027808</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.917129202339</v>
+        <v>1359.322435202252</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.142384360634</v>
+        <v>925.5476903605472</v>
       </c>
       <c r="F14" t="n">
-        <v>785.2749547698421</v>
+        <v>497.680260769755</v>
       </c>
       <c r="G14" t="n">
-        <v>383.877123393106</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="H14" t="n">
-        <v>94.74696883632224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J14" t="n">
-        <v>452.1103875997775</v>
+        <v>531.5371168459367</v>
       </c>
       <c r="K14" t="n">
-        <v>1286.460679557955</v>
+        <v>531.5371168459367</v>
       </c>
       <c r="L14" t="n">
-        <v>2361.520645810815</v>
+        <v>1606.597083098796</v>
       </c>
       <c r="M14" t="n">
-        <v>2361.520645810815</v>
+        <v>2763.644918309346</v>
       </c>
       <c r="N14" t="n">
-        <v>2361.520645810815</v>
+        <v>3889.375901745794</v>
       </c>
       <c r="O14" t="n">
-        <v>3341.700312381121</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="P14" t="n">
-        <v>4170.010187214517</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="Q14" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="R14" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S14" t="n">
-        <v>4716.508973173112</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T14" t="n">
-        <v>4496.441746046151</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U14" t="n">
-        <v>4496.441746046151</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V14" t="n">
-        <v>4133.824795979977</v>
+        <v>3891.958305039294</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.697544450415</v>
+        <v>3487.102850450328</v>
       </c>
       <c r="X14" t="n">
-        <v>3355.555081029726</v>
+        <v>3067.960387029639</v>
       </c>
       <c r="Y14" t="n">
-        <v>2947.268957329379</v>
+        <v>2659.674263329292</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C15" t="n">
-        <v>494.0454632913973</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D15" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I15" t="n">
-        <v>120.3938526239198</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J15" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.658224215856</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.658224215856</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.658224215856</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P15" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>848.2916047552974</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1173.388340075344</v>
+        <v>943.5998142180059</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.826628558569</v>
+        <v>771.0381027012309</v>
       </c>
       <c r="D16" t="n">
-        <v>834.9486357600913</v>
+        <v>605.1601099027537</v>
       </c>
       <c r="E16" t="n">
-        <v>665.1906320108285</v>
+        <v>435.4021061534909</v>
       </c>
       <c r="F16" t="n">
-        <v>488.4835779725847</v>
+        <v>258.6950521152471</v>
       </c>
       <c r="G16" t="n">
-        <v>322.8923029984124</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="H16" t="n">
-        <v>182.9901286887869</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I16" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J16" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K16" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L16" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.989789366262</v>
+        <v>2691.52421800119</v>
       </c>
       <c r="S16" t="n">
-        <v>2551.748420664258</v>
+        <v>2691.52421800119</v>
       </c>
       <c r="T16" t="n">
-        <v>2551.748420664258</v>
+        <v>2445.644771579645</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.315419917364</v>
+        <v>2167.211770832751</v>
       </c>
       <c r="V16" t="n">
-        <v>2110.044788560519</v>
+        <v>1880.256262703181</v>
       </c>
       <c r="W16" t="n">
-        <v>1838.01838414681</v>
+        <v>1608.229858289472</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.626629480223</v>
+        <v>1362.838103622885</v>
       </c>
       <c r="Y16" t="n">
-        <v>1365.206958794331</v>
+        <v>1135.418432936993</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2231.422442914828</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C17" t="n">
-        <v>1793.279970098251</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D17" t="n">
-        <v>1357.370185272695</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E17" t="n">
-        <v>923.5954404309906</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F17" t="n">
-        <v>495.7280108401984</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G17" t="n">
-        <v>94.33017946346224</v>
+        <v>385.8293733226626</v>
       </c>
       <c r="H17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.69921876587884</v>
       </c>
       <c r="I17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="K17" t="n">
-        <v>928.6804714216402</v>
+        <v>476.1030181807791</v>
       </c>
       <c r="L17" t="n">
-        <v>2003.740437674499</v>
+        <v>1551.162984433638</v>
       </c>
       <c r="M17" t="n">
-        <v>3160.78827288505</v>
+        <v>2708.210819644189</v>
       </c>
       <c r="N17" t="n">
-        <v>4286.519256321498</v>
+        <v>3833.941803080636</v>
       </c>
       <c r="O17" t="n">
-        <v>4286.519256321498</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="P17" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="Q17" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="R17" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S17" t="n">
-        <v>4632.857099356948</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T17" t="n">
-        <v>4511.845307858895</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U17" t="n">
-        <v>4252.623005175911</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V17" t="n">
-        <v>3890.006055109738</v>
+        <v>4181.505248968938</v>
       </c>
       <c r="W17" t="n">
-        <v>3485.150600520771</v>
+        <v>3776.649794379971</v>
       </c>
       <c r="X17" t="n">
-        <v>3066.008137100082</v>
+        <v>3357.507330959282</v>
       </c>
       <c r="Y17" t="n">
-        <v>2657.722013399735</v>
+        <v>2949.221207258935</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C18" t="n">
-        <v>494.0454632913973</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D18" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I18" t="n">
-        <v>120.3938526239198</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J18" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K18" t="n">
-        <v>1125.68569766051</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="L18" t="n">
-        <v>1640.397162847931</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="M18" t="n">
-        <v>1640.397162847931</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="N18" t="n">
-        <v>1640.397162847931</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="O18" t="n">
-        <v>1640.397162847931</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="P18" t="n">
-        <v>1640.397162847931</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U18" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>848.2916047552974</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y18" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>944.8262165403935</v>
+        <v>921.0893658054033</v>
       </c>
       <c r="C19" t="n">
-        <v>772.2645050236184</v>
+        <v>748.5276542886282</v>
       </c>
       <c r="D19" t="n">
-        <v>606.3865122251411</v>
+        <v>582.6496614901509</v>
       </c>
       <c r="E19" t="n">
-        <v>436.6285084758783</v>
+        <v>412.8916577408883</v>
       </c>
       <c r="F19" t="n">
-        <v>259.9214544376346</v>
+        <v>236.1846037026444</v>
       </c>
       <c r="G19" t="n">
-        <v>94.33017946346224</v>
+        <v>236.1846037026444</v>
       </c>
       <c r="H19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J19" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K19" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L19" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2689.571968071634</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S19" t="n">
-        <v>2530.33059936963</v>
+        <v>2669.013769588587</v>
       </c>
       <c r="T19" t="n">
-        <v>2284.451152948086</v>
+        <v>2423.134323167042</v>
       </c>
       <c r="U19" t="n">
-        <v>2006.018152201191</v>
+        <v>2144.701322420147</v>
       </c>
       <c r="V19" t="n">
-        <v>1719.062644071621</v>
+        <v>1857.745814290578</v>
       </c>
       <c r="W19" t="n">
-        <v>1447.036239657913</v>
+        <v>1585.71940987687</v>
       </c>
       <c r="X19" t="n">
-        <v>1364.064505945272</v>
+        <v>1340.327655210282</v>
       </c>
       <c r="Y19" t="n">
-        <v>1136.644835259381</v>
+        <v>1112.90798452439</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2520.969386844472</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C20" t="n">
-        <v>2082.826914027894</v>
+        <v>2084.779163957452</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.917129202339</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E20" t="n">
-        <v>1213.142384360634</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F20" t="n">
-        <v>785.2749547698414</v>
+        <v>787.227204699399</v>
       </c>
       <c r="G20" t="n">
-        <v>383.877123393106</v>
+        <v>385.8293733226628</v>
       </c>
       <c r="H20" t="n">
-        <v>94.74696883632224</v>
+        <v>96.69921876587884</v>
       </c>
       <c r="I20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J20" t="n">
-        <v>94.33017946346224</v>
+        <v>531.5371168459367</v>
       </c>
       <c r="K20" t="n">
-        <v>928.6804714216402</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L20" t="n">
-        <v>1453.550487955808</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M20" t="n">
-        <v>2610.598323166359</v>
+        <v>2459.133142288646</v>
       </c>
       <c r="N20" t="n">
-        <v>3736.329306602805</v>
+        <v>2459.133142288646</v>
       </c>
       <c r="O20" t="n">
-        <v>4716.508973173112</v>
+        <v>3439.312808858952</v>
       </c>
       <c r="P20" t="n">
-        <v>4716.508973173112</v>
+        <v>4267.622683692348</v>
       </c>
       <c r="Q20" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="R20" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S20" t="n">
-        <v>4632.857099356949</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T20" t="n">
-        <v>4412.789872229988</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U20" t="n">
-        <v>4412.789872229988</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V20" t="n">
-        <v>4050.172922163814</v>
+        <v>3888.563115958661</v>
       </c>
       <c r="W20" t="n">
-        <v>3774.697544450415</v>
+        <v>3483.707661369695</v>
       </c>
       <c r="X20" t="n">
-        <v>3355.555081029726</v>
+        <v>3064.565197949005</v>
       </c>
       <c r="Y20" t="n">
-        <v>2947.268957329379</v>
+        <v>2949.221207258936</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C21" t="n">
-        <v>494.0454632913973</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D21" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I21" t="n">
-        <v>120.3938526239198</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J21" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K21" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M21" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N21" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O21" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P21" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U21" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>848.2916047552974</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y21" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>944.8262165403935</v>
+        <v>805.7762668106305</v>
       </c>
       <c r="C22" t="n">
-        <v>772.2645050236184</v>
+        <v>633.2145552938555</v>
       </c>
       <c r="D22" t="n">
-        <v>606.3865122251411</v>
+        <v>467.3365624953783</v>
       </c>
       <c r="E22" t="n">
-        <v>436.6285084758784</v>
+        <v>438.580758405435</v>
       </c>
       <c r="F22" t="n">
-        <v>259.9214544376346</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G22" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="H22" t="n">
-        <v>94.3301794634629</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I22" t="n">
-        <v>94.3301794634629</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J22" t="n">
-        <v>180.9098646281527</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K22" t="n">
-        <v>455.6683191992884</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L22" t="n">
-        <v>873.8782009672494</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1775.620871305807</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S22" t="n">
-        <v>2692.750620323578</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.871173902033</v>
+        <v>2307.82122417227</v>
       </c>
       <c r="U22" t="n">
-        <v>2168.438173155138</v>
+        <v>2029.388223425375</v>
       </c>
       <c r="V22" t="n">
-        <v>1881.482665025568</v>
+        <v>1742.432715295806</v>
       </c>
       <c r="W22" t="n">
-        <v>1609.45626061186</v>
+        <v>1470.406310882097</v>
       </c>
       <c r="X22" t="n">
-        <v>1364.064505945272</v>
+        <v>1225.014556215509</v>
       </c>
       <c r="Y22" t="n">
-        <v>1136.64483525938</v>
+        <v>997.5948855296176</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,22 +5990,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6148,7 +6148,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883919</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716168</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731395</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238768</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.849915585633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,22 +6464,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6780,22 +6780,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449518</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6859,7 +6859,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245845</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079241</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037836</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387605</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362754</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936672</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080661</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463119</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218674</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296054</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>219.0166653433666</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>1294.076631596226</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>1294.076631596226</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032673</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3399.987281602979</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4228.297156436375</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4774.79594239497</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567252</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.23375411335</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.75430019088</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>985.7887806612117</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936676</v>
+        <v>825.0337389223137</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080664</v>
+        <v>670.9624159017133</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716798</v>
+        <v>513.0110819303277</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463121</v>
+        <v>348.1106976699606</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850159</v>
+        <v>194.3260924736651</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882666</v>
+        <v>175.7322795904084</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773801</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946382</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999258</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.99371935559</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386572</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1875.218550034879</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1614.998815399048</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510337</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1165.800729602322</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218674</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>933.2292921011384</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2008.289258353998</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2008.289258353998</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>3134.020241790445</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>4114.199908360752</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4942.509783194148</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567252</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.23375411335</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.75430019088</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612118</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>825.0337389223135</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080658</v>
+        <v>670.962415901713</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>513.011081930327</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>348.1106976699602</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>194.3260924736646</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>175.7322795904084</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773801</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946382</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999258</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.99371935559</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386572</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.218550034879</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399048</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510337</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602322</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218674</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1294.076631596226</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675539</v>
+        <v>1294.076631596226</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675539</v>
+        <v>1294.076631596226</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2419.807615032673</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3399.987281602979</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4228.297156436375</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4774.79594239497</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567252</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3265.233754113349</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190879</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>985.7887806612119</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936676</v>
+        <v>825.0337389223137</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080664</v>
+        <v>670.9624159017131</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716798</v>
+        <v>513.0110819303272</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463121</v>
+        <v>348.1106976699602</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850157</v>
+        <v>194.3260924736647</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904084</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758678</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>483.3605739773801</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856843</v>
+        <v>913.1421727946382</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2651.066495999258</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2416.99371935559</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386572</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1875.218550034879</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399048</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510337</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602322</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>596.6946901895894</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>6.74763717498422</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895894</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,16 +8526,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>596.6946901895894</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>90.9514914126139</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>327.9423531714701</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>361.3941496326418</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>377.1548053689274</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1161.257365814997</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>361.3941496326418</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>934.0864322274233</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>383.6571603916771</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9176,10 +9176,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>434.3330473248625</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>530.1717338728965</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9638,25 +9638,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -10112,25 +10112,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,10 +10428,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>121.3511769701071</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>1.454771670584705</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,16 +11297,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>767.6191353538865</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763894</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>56.68192321771011</v>
       </c>
       <c r="T11" t="n">
-        <v>45.27092102881108</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.446659489829642</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>52.30086641797035</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.361237189826454</v>
       </c>
       <c r="W14" t="n">
-        <v>45.27092102881018</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.146865729424064</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>122.448028004997</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>98.06488127261809</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>290.012711680174</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>114.1599680048243</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24023,19 +24023,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>128.0862761068116</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>290.0127116801743</v>
       </c>
     </row>
     <row r="21">
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>102.9863699957342</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>108.406674732007</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>108.4066747320076</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>108.4066747320074</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>810353.126430964</v>
+        <v>812847.4268424974</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>810353.126430964</v>
+        <v>812847.4268424974</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>812121.1374090718</v>
+        <v>812847.4268424974</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757008.9864719621</v>
+        <v>748587.8582477708</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757008.9864719622</v>
+        <v>768508.8883336606</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757008.9864719621</v>
+        <v>768508.8883336604</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757008.9864719622</v>
+        <v>768508.8883336606</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>817197.5042684796</v>
+        <v>803725.2493857385</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>817197.5042684796</v>
+        <v>813424.1185523811</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817197.5042684796</v>
+        <v>813424.1185523811</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>817197.5042684796</v>
+        <v>813424.1185523811</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26314,28 @@
         <v>134036.8299726021</v>
       </c>
       <c r="C2" t="n">
-        <v>134036.8299726021</v>
+        <v>134036.829972602</v>
       </c>
       <c r="D2" t="n">
         <v>134036.8299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>124058.540554655</v>
+        <v>122678.4870863526</v>
       </c>
       <c r="F2" t="n">
-        <v>124058.5405546551</v>
+        <v>125943.1430719026</v>
       </c>
       <c r="G2" t="n">
-        <v>124058.5405546551</v>
+        <v>125943.1430719026</v>
       </c>
       <c r="H2" t="n">
-        <v>124058.5405546551</v>
+        <v>125943.1430719026</v>
       </c>
       <c r="I2" t="n">
         <v>131714.3960343381</v>
       </c>
       <c r="J2" t="n">
-        <v>131714.396034338</v>
+        <v>131714.3960343381</v>
       </c>
       <c r="K2" t="n">
         <v>131714.3960343381</v>
@@ -26344,16 +26344,16 @@
         <v>131714.396034338</v>
       </c>
       <c r="M2" t="n">
-        <v>134036.8299726021</v>
+        <v>131714.396034338</v>
       </c>
       <c r="N2" t="n">
-        <v>134036.8299726021</v>
+        <v>133386.3899242101</v>
       </c>
       <c r="O2" t="n">
-        <v>134036.8299726021</v>
+        <v>133386.3899242102</v>
       </c>
       <c r="P2" t="n">
-        <v>134036.8299726021</v>
+        <v>133386.3899242101</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53552.24939212214</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>173901.5468405932</v>
+        <v>147420.5464117494</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12112.31405579371</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26361.61565678307</v>
+        <v>19872.3124878128</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43632.59295915264</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143510.6200345138</v>
+        <v>123042.5210430561</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9350.882464078426</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>137612.6947546389</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>13417.20773267364</v>
+        <v>13267.95187343472</v>
       </c>
       <c r="F4" t="n">
-        <v>13417.20773267364</v>
+        <v>13621.03169637963</v>
       </c>
       <c r="G4" t="n">
-        <v>13417.2077326736</v>
+        <v>13621.03169637963</v>
       </c>
       <c r="H4" t="n">
-        <v>13417.20773267367</v>
+        <v>13621.03169637963</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>29443.15222066921</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.1522206692</v>
+        <v>25191.69126703177</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.15222066922</v>
+        <v>25191.69126703176</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.15222066925</v>
+        <v>25191.69126703177</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69906.63716352703</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71690.93639223131</v>
+        <v>70604.4478415518</v>
       </c>
       <c r="F5" t="n">
-        <v>71690.93639223131</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="G5" t="n">
-        <v>71690.93639223131</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="H5" t="n">
-        <v>71690.93639223131</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608971</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099076</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099076</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099076</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-242879.4986894411</v>
+        <v>-286006.2463983357</v>
       </c>
       <c r="C6" t="n">
-        <v>-100688.1980297312</v>
+        <v>-62306.54781429087</v>
       </c>
       <c r="D6" t="n">
-        <v>-127034.751337686</v>
+        <v>-62306.54781429088</v>
       </c>
       <c r="E6" t="n">
-        <v>-134951.1504108431</v>
+        <v>-108728.0424692459</v>
       </c>
       <c r="F6" t="n">
-        <v>38950.39642975011</v>
+        <v>26954.21411202793</v>
       </c>
       <c r="G6" t="n">
-        <v>38950.39642975015</v>
+        <v>39066.52816782164</v>
       </c>
       <c r="H6" t="n">
-        <v>38950.39642975008</v>
+        <v>39066.52816782163</v>
       </c>
       <c r="I6" t="n">
-        <v>13389.33620126985</v>
+        <v>19855.41503085747</v>
       </c>
       <c r="J6" t="n">
-        <v>-71263.51348693731</v>
+        <v>-134923.6211990359</v>
       </c>
       <c r="K6" t="n">
-        <v>39750.95185805291</v>
+        <v>39727.72751867028</v>
       </c>
       <c r="L6" t="n">
-        <v>-3881.641101099754</v>
+        <v>39727.72751867021</v>
       </c>
       <c r="M6" t="n">
-        <v>-114432.5570086706</v>
+        <v>-83314.79352438582</v>
       </c>
       <c r="N6" t="n">
-        <v>29078.06302584319</v>
+        <v>22706.62251162524</v>
       </c>
       <c r="O6" t="n">
-        <v>29078.06302584321</v>
+        <v>32057.50497570373</v>
       </c>
       <c r="P6" t="n">
-        <v>29078.06302584318</v>
+        <v>32057.5049757037</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.6946901895894</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1179.127243293278</v>
+        <v>1161.257365814997</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="G4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="H4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>172.398832669485</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>582.4325531036886</v>
+        <v>493.7421592071398</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>42.2730015977388</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.13326009146726</v>
+        <v>74.73013597200975</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.398832669485</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7558456666663</v>
+        <v>493.7421592071398</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.398832669485</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>582.4325531036886</v>
+        <v>493.7421592071398</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>42.2730015977388</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>147.1122069234078</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>108.5867600896397</v>
-      </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>215.3666883640334</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>18.31929241554624</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>369.8422500230727</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>319.198485488136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>13.07425212110397</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>203.6732907045975</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>9.03223872955499</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>149.1857908331203</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.2357103387468</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874688</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>596.6946901895894</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>6.74763717498422</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895894</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>596.6946901895894</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>90.9514914126139</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>327.9423531714701</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>361.3941496326418</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>377.1548053689274</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1161.257365814997</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>361.3941496326418</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>934.0864322274233</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>383.6571603916771</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35896,10 +35896,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>434.3330473248625</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>530.1717338728965</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,10 +36291,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36358,25 +36358,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36832,25 +36832,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,10 +37148,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37230,7 +37230,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37306,7 +37306,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,10 +37315,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>121.3511769701071</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,10 +37552,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>99.1428305191787</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881395</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>1.454771670584705</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.1428305191787</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881395</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>767.6191353538865</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763894</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778283</v>
+        <v>99.1428305191787</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881396</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
